--- a/(Thursday) Presentation Roster and Marksheet.xlsx
+++ b/(Thursday) Presentation Roster and Marksheet.xlsx
@@ -5,17 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\win10\Downloads\RandomisingPresentationDate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User10.RURIGI-WAWERU\Desktop\RandomisingPresentationDate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A7F64B-6CAA-4357-B458-9E289445FDCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65776BE6-593F-472A-819E-1EE338F55460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{971959C3-BDCC-4784-931D-5CC78A601EB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Panel 1" sheetId="3" r:id="rId1"/>
-    <sheet name="Panel 2" sheetId="4" r:id="rId2"/>
+    <sheet name="thursdayPanel 1" sheetId="3" r:id="rId1"/>
+    <sheet name="thursdayPanel 2" sheetId="4" r:id="rId2"/>
+    <sheet name="fridayPanel 1" sheetId="5" r:id="rId3"/>
+    <sheet name="fridayPanel 2" sheetId="6" r:id="rId4"/>
+    <sheet name="FT List" sheetId="7" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'FT List'!$A$1:$G$91</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="213">
   <si>
     <t>Name</t>
   </si>
@@ -374,13 +380,313 @@
   </si>
   <si>
     <t>LUNCH BREAK (1PM - 2PM)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Strays</t>
+  </si>
+  <si>
+    <t>DAN CHILA</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1246-20</t>
+  </si>
+  <si>
+    <t>Day Two: Friday 19th-07-2024</t>
+  </si>
+  <si>
+    <t>OBARA JUSTINE</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1757-22</t>
+  </si>
+  <si>
+    <t>EMMERSON KURGAT</t>
+  </si>
+  <si>
+    <t>ICT-3-4464-23</t>
+  </si>
+  <si>
+    <t>LAWRENCE HOME MURAYA</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1719-21</t>
+  </si>
+  <si>
+    <t>Vincent Ngetich</t>
+  </si>
+  <si>
+    <t> ICT-G-4-1512-21</t>
+  </si>
+  <si>
+    <t>MOSES WAIHENYA</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1509-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DANIEL WAMBICHO </t>
+  </si>
+  <si>
+    <t>ICT -3- 4525-23</t>
+  </si>
+  <si>
+    <t>ISAAC NEWTON KIMANI</t>
+  </si>
+  <si>
+    <t>ICT -3-4456-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">THADEUS MOKAYA </t>
+  </si>
+  <si>
+    <t>ICT-G-1279-20</t>
+  </si>
+  <si>
+    <t>FLORINE MUKAMI</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1457-21</t>
+  </si>
+  <si>
+    <t>MATHEW MWENDWA</t>
+  </si>
+  <si>
+    <t>ICT-3-4478-23</t>
+  </si>
+  <si>
+    <t>KIPKOECH VALENTINE JELIMO</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1515-21</t>
+  </si>
+  <si>
+    <t>FRANCIS MWANGI</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1523-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEDDY OTIENO </t>
+  </si>
+  <si>
+    <t>ICT-G-4-1303-20</t>
+  </si>
+  <si>
+    <t>BOWEN MATHEW</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1627-21</t>
+  </si>
+  <si>
+    <t>NEHEMIA KIPLETING</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1607-21</t>
+  </si>
+  <si>
+    <t>CALEB SIMIYU</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1454-21</t>
+  </si>
+  <si>
+    <t>WILLIAM ISAYA</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1410-21</t>
+  </si>
+  <si>
+    <t>ABDIRASHID ABDI ABDULLAHI</t>
+  </si>
+  <si>
+    <t>ICT-3-4557-23</t>
+  </si>
+  <si>
+    <t>BENSON NJOROGE CHEGE</t>
+  </si>
+  <si>
+    <t>ICT-3-4523-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOAZ MWANIKI </t>
+  </si>
+  <si>
+    <t>ICT-G-4-1642-21</t>
+  </si>
+  <si>
+    <t>BRAMWEL AGINA</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1766-22</t>
+  </si>
+  <si>
+    <t>CEDRICK AMBANI</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1442-21</t>
+  </si>
+  <si>
+    <t>CHARLTON OMONDI</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1659-21</t>
+  </si>
+  <si>
+    <t>CRAIG CARLOS OUMA</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1458-21</t>
+  </si>
+  <si>
+    <t>DANIEL GITAU</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1103-20</t>
+  </si>
+  <si>
+    <t>DENNIS WAMBUA</t>
+  </si>
+  <si>
+    <t>ict-g-4-1415-21</t>
+  </si>
+  <si>
+    <t>DENNIS WAMBUA MWENDWA</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1533-21</t>
+  </si>
+  <si>
+    <t>EMMANUEL JUMA</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1544-21</t>
+  </si>
+  <si>
+    <t>GIDEON SIGILAI</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1572-21</t>
+  </si>
+  <si>
+    <t>IAN GICHEHA</t>
+  </si>
+  <si>
+    <t>ICT-3-4495-23</t>
+  </si>
+  <si>
+    <t>JULIET MUSENGYA</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1405-21</t>
+  </si>
+  <si>
+    <t>KIGUTI IAN MUSILA</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1444-21</t>
+  </si>
+  <si>
+    <t>TITUS MUNENE</t>
+  </si>
+  <si>
+    <t>ict-3-4505-23</t>
+  </si>
+  <si>
+    <t>ZACHARIA WAMBUGU</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1419-1</t>
+  </si>
+  <si>
+    <t>ZAKAYO MANJERU</t>
+  </si>
+  <si>
+    <t>ICT-3-4551-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucy Agono Okoth </t>
+  </si>
+  <si>
+    <t>ICT-G-4-1024-19</t>
+  </si>
+  <si>
+    <t>OKINYO ANTHONY ODHIAMBO</t>
+  </si>
+  <si>
+    <t>ICT-G-4-0499-17</t>
+  </si>
+  <si>
+    <t>Mode of Study</t>
+  </si>
+  <si>
+    <t>Day of Presentation</t>
+  </si>
+  <si>
+    <t>T-M-18-07</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>STRAYS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Gatuhi </t>
+  </si>
+  <si>
+    <t>Ict-g-4-1562-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celestine Riana Cheyech       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PURITY JEPTOO </t>
+  </si>
+  <si>
+    <t>ICT-G-4-1753-22</t>
+  </si>
+  <si>
+    <t>project 2</t>
+  </si>
+  <si>
+    <t>Mercy Kinyunye</t>
+  </si>
+  <si>
+    <t>ICT-G-4-0530-17</t>
+  </si>
+  <si>
+    <t>John Mua</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1629-21</t>
+  </si>
+  <si>
+    <t>T-A-18-07</t>
+  </si>
+  <si>
+    <t>Antony Nyaga</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1557-21</t>
+  </si>
+  <si>
+    <t>Joseph Erick Mukhwenda</t>
+  </si>
+  <si>
+    <t>ICT-G-4-1707-21</t>
+  </si>
+  <si>
+    <t>Success factors for implementing secure IAAS for health records in Kenya national referral hospital: case study of Eldoret</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -416,8 +722,24 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -433,6 +755,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,7 +891,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -597,6 +925,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -609,12 +943,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -638,27 +966,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,6 +986,85 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,88 +1380,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EF858F-EDC0-4E5E-B534-AA330F920193}">
-  <dimension ref="B2:M62"/>
+  <dimension ref="B2:O73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
     <col min="9" max="9" width="11.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
     <col min="11" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="8" spans="2:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="8" spans="2:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="20"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="11" t="s">
         <v>104</v>
       </c>
@@ -1092,13 +1480,13 @@
       <c r="J8" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K8" s="20" t="s">
+      <c r="K8" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-    </row>
-    <row r="9" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -1118,19 +1506,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="28"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="F10" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="63"/>
       <c r="H10" s="8">
         <v>1</v>
       </c>
@@ -1140,25 +1530,35 @@
       <c r="J10" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="8">
+        <v>49</v>
+      </c>
+      <c r="L10" s="8">
+        <v>49</v>
+      </c>
+      <c r="M10" s="8">
+        <v>69</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="28"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="8">
         <v>2</v>
       </c>
@@ -1168,75 +1568,109 @@
       <c r="J11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K11" s="8">
+        <v>30</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="8">
+        <v>29</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="28"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="8">
         <v>3</v>
       </c>
       <c r="I12" s="9">
         <v>0.40277777777777779</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="8">
+        <v>61</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" s="8">
+        <v>69</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>4</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="28"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="8">
         <v>4</v>
       </c>
       <c r="I13" s="9">
         <v>0.41666666666666669</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="J13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L13" s="8">
+        <v>30</v>
+      </c>
+      <c r="M13" s="8">
+        <v>31</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>5</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="28"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="8">
         <v>5</v>
       </c>
@@ -1244,25 +1678,27 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="J14" s="8"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>6</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="28"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="8">
         <v>6</v>
       </c>
@@ -1272,25 +1708,35 @@
       <c r="J15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="8">
+        <v>21</v>
+      </c>
+      <c r="M15" s="8">
+        <v>22</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>7</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="28"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="8">
         <v>7</v>
       </c>
@@ -1300,25 +1746,27 @@
       <c r="J16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>8</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="28"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="8">
         <v>8</v>
       </c>
@@ -1328,25 +1776,35 @@
       <c r="J17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K17" s="8">
+        <v>25</v>
+      </c>
+      <c r="L17" s="8">
+        <v>28</v>
+      </c>
+      <c r="M17" s="8">
+        <v>22</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>9</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="C18" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="28"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="8">
         <v>9</v>
       </c>
@@ -1356,25 +1814,35 @@
       <c r="J18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K18" s="8">
+        <v>18</v>
+      </c>
+      <c r="L18" s="8">
+        <v>20</v>
+      </c>
+      <c r="M18" s="8">
+        <v>21</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="7">
         <v>10</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="28"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="14"/>
       <c r="H19" s="8">
         <v>10</v>
       </c>
@@ -1384,25 +1852,35 @@
       <c r="J19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K19" s="8">
+        <v>22</v>
+      </c>
+      <c r="L19" s="8">
+        <v>17</v>
+      </c>
+      <c r="M19" s="8">
+        <v>22</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>11</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="28"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="8">
         <v>11</v>
       </c>
@@ -1412,25 +1890,35 @@
       <c r="J20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K20" s="8">
+        <v>23</v>
+      </c>
+      <c r="L20" s="8">
+        <v>21</v>
+      </c>
+      <c r="M20" s="8">
+        <v>23</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>12</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="28"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="8">
         <v>12</v>
       </c>
@@ -1440,25 +1928,33 @@
       <c r="J21" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="K21" s="8">
+        <v>24</v>
+      </c>
+      <c r="L21" s="8">
+        <v>23</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>13</v>
       </c>
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="28"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="8">
         <v>13</v>
       </c>
@@ -1468,41 +1964,43 @@
       <c r="J22" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>14</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D24" s="28"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="8">
         <v>14</v>
       </c>
@@ -1516,19 +2014,19 @@
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>15</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="28"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="8">
         <v>15</v>
       </c>
@@ -1542,19 +2040,19 @@
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>16</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="28"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="8">
         <v>16</v>
       </c>
@@ -1568,19 +2066,19 @@
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>17</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="28"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="8">
         <v>17</v>
       </c>
@@ -1594,19 +2092,19 @@
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="7">
         <v>18</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="28"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="8">
         <v>18</v>
       </c>
@@ -1620,19 +2118,19 @@
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="7">
         <v>19</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D29" s="28"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="8">
         <v>19</v>
       </c>
@@ -1646,19 +2144,19 @@
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="7">
         <v>20</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="28"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="8">
         <v>20</v>
       </c>
@@ -1672,19 +2170,19 @@
       <c r="L30" s="10"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="7">
         <v>21</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="28"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="8">
         <v>21</v>
       </c>
@@ -1696,31 +2194,414 @@
       <c r="L31" s="10"/>
       <c r="M31" s="10"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C33" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="D33" s="48"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C34" s="48"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>1</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="8">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="8">
+        <v>27</v>
+      </c>
+      <c r="L36" s="8">
+        <v>29</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <v>2</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="8">
+        <v>2</v>
+      </c>
+      <c r="I37" s="9">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K37" s="8">
+        <v>56</v>
+      </c>
+      <c r="L37" s="8">
+        <v>45</v>
+      </c>
+      <c r="M37" s="8">
+        <v>47</v>
+      </c>
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="8">
+        <v>3</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>4</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>5</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="8"/>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <v>6</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <v>7</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="8">
+        <v>59</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M42" s="8">
+        <v>52</v>
+      </c>
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <v>8</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="K43" s="8">
+        <v>28</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M43" s="8">
+        <v>29</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>9</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>10</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <v>11</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>12</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>13</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B2:M3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+  <mergeCells count="65">
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C33:H34"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C8:D8"/>
@@ -1737,23 +2618,15 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B2:M3"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
     <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="B23:M23"/>
     <mergeCell ref="B5:M6"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="F9:G9"/>
@@ -1761,9 +2634,6 @@
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1772,54 +2642,55 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04570D3E-0870-4707-A274-2D6D12B8F314}">
-  <dimension ref="B2:M27"/>
+  <dimension ref="B2:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="35" t="s">
+    <row r="2" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+    </row>
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="H4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="2:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
       <c r="C5" s="26" t="s">
         <v>0</v>
@@ -1844,16 +2715,16 @@
       <c r="K5" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="41"/>
+      <c r="L5" s="34"/>
       <c r="M5" s="27"/>
     </row>
-    <row r="6" spans="2:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="34"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="13"/>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
@@ -1867,19 +2738,19 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="7">
         <v>21</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="D7" s="30"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="8">
         <v>1</v>
       </c>
@@ -1889,23 +2760,33 @@
       <c r="J7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="8">
+        <v>23</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="8">
+        <v>24</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7">
         <v>22</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="30"/>
+      <c r="D8" s="36"/>
       <c r="E8" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="8">
         <v>2</v>
       </c>
@@ -1915,23 +2796,25 @@
       <c r="J8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="7">
         <v>23</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="30"/>
+      <c r="D9" s="36"/>
       <c r="E9" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="8">
         <v>3</v>
       </c>
@@ -1941,23 +2824,33 @@
       <c r="J9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="8">
+        <v>22</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="8">
+        <v>20</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7">
         <v>24</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="30"/>
+      <c r="D10" s="36"/>
       <c r="E10" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="8">
         <v>4</v>
       </c>
@@ -1967,23 +2860,25 @@
       <c r="J10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-    </row>
-    <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7">
         <v>25</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="D11" s="30"/>
+      <c r="D11" s="36"/>
       <c r="E11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="32"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="8">
         <v>5</v>
       </c>
@@ -1991,25 +2886,35 @@
         <v>0.43055555555555558</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-    </row>
-    <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="K11" s="8">
+        <v>23</v>
+      </c>
+      <c r="L11" s="8">
+        <v>17</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7">
         <v>26</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D12" s="30"/>
+      <c r="D12" s="36"/>
       <c r="E12" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="8">
         <v>6</v>
       </c>
@@ -2019,23 +2924,25 @@
       <c r="J12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-    </row>
-    <row r="13" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7">
         <v>27</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="30"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="8">
         <v>7</v>
       </c>
@@ -2045,23 +2952,33 @@
       <c r="J13" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-    </row>
-    <row r="14" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="8">
+        <v>19</v>
+      </c>
+      <c r="L13" s="8">
+        <v>21</v>
+      </c>
+      <c r="M13" s="8">
+        <v>18</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7">
         <v>28</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="30"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="31"/>
-      <c r="G14" s="32"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="8">
         <v>8</v>
       </c>
@@ -2071,23 +2988,33 @@
       <c r="J14" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-    </row>
-    <row r="15" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="8">
+        <v>17</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="8">
+        <v>22</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>29</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="D15" s="30"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="32"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="8">
         <v>9</v>
       </c>
@@ -2097,23 +3024,25 @@
       <c r="J15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-    </row>
-    <row r="16" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>30</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="32"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="8">
         <v>10</v>
       </c>
@@ -2123,23 +3052,33 @@
       <c r="J16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-    </row>
-    <row r="17" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="8">
+        <v>20</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="M16" s="8">
+        <v>52</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>31</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="30"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="32"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="8">
         <v>11</v>
       </c>
@@ -2149,23 +3088,25 @@
       <c r="J17" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-    </row>
-    <row r="18" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7">
         <v>32</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="30"/>
+      <c r="D18" s="36"/>
       <c r="E18" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="8">
         <v>12</v>
       </c>
@@ -2175,39 +3116,49 @@
       <c r="J18" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16" t="s">
+      <c r="K18" s="8">
+        <v>64</v>
+      </c>
+      <c r="L18" s="8">
+        <v>45</v>
+      </c>
+      <c r="M18" s="8">
+        <v>54</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
-    </row>
-    <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="20"/>
+    </row>
+    <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7">
         <v>33</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="30"/>
+      <c r="D20" s="36"/>
       <c r="E20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="32"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="8">
         <v>13</v>
       </c>
@@ -2217,23 +3168,25 @@
       <c r="J20" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7">
         <v>34</v>
       </c>
-      <c r="C21" s="29" t="s">
+      <c r="C21" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="8">
         <v>14</v>
       </c>
@@ -2243,23 +3196,25 @@
       <c r="J21" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7">
         <v>35</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="30"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="8">
         <v>15</v>
       </c>
@@ -2269,23 +3224,25 @@
       <c r="J22" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7">
         <v>36</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="30"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="8">
         <v>16</v>
       </c>
@@ -2295,23 +3252,25 @@
       <c r="J23" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7">
         <v>37</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="30"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="8">
         <v>17</v>
       </c>
@@ -2321,23 +3280,33 @@
       <c r="J24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24" s="8">
+        <v>21</v>
+      </c>
+      <c r="L24" s="8">
+        <v>24</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7">
         <v>38</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="30"/>
+      <c r="D25" s="36"/>
       <c r="E25" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="32"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="8">
         <v>18</v>
       </c>
@@ -2347,23 +3316,25 @@
       <c r="J25" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7">
         <v>39</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="36"/>
       <c r="E26" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="8">
         <v>19</v>
       </c>
@@ -2373,23 +3344,25 @@
       <c r="J26" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7">
         <v>40</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="36"/>
       <c r="E27" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="8">
         <v>20</v>
       </c>
@@ -2399,29 +3372,28 @@
       <c r="J27" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B2:M3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B19:M19"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
@@ -2438,21 +3410,2747 @@
     <mergeCell ref="F27:G27"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B2:M3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F3ECFC-02EA-4E3A-A929-DB13D25BB9FB}">
+  <dimension ref="B2:O62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="5" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="8" spans="2:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="2:15" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="51"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="47"/>
+      <c r="E10" s="41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="8">
+        <v>2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="8">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="8">
+        <v>35</v>
+      </c>
+      <c r="L12" s="8">
+        <v>38</v>
+      </c>
+      <c r="M12" s="8">
+        <v>31</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="41" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="8">
+        <v>5</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>6</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="47"/>
+      <c r="E15" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="8">
+        <v>6</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>7</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="8">
+        <v>7</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="8">
+        <v>8</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>9</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>174</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="8">
+        <v>9</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>10</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="47"/>
+      <c r="E19" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="8">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>11</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="8">
+        <v>11</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>12</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="47"/>
+      <c r="E21" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="8">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>13</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="8">
+        <v>13</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>14</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="41" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="8">
+        <v>14</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>15</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="D25" s="47"/>
+      <c r="E25" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="8">
+        <v>15</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>16</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="D26" s="47"/>
+      <c r="E26" s="41" t="s">
+        <v>187</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="8">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>17</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>188</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="8">
+        <v>17</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>18</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="D28" s="47"/>
+      <c r="E28" s="41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="8">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="J28" s="8"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>19</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="8">
+        <v>19</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="J29" s="8"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>20</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="8">
+        <v>20</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J30" s="8"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>21</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="8">
+        <v>21</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B2:M3"/>
+    <mergeCell ref="B5:M6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D4D5AB-8E55-470C-AB2C-50E1F72631D3}">
+  <dimension ref="B2:N56"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="39" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" customWidth="1"/>
+    <col min="11" max="13" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="5" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+    </row>
+    <row r="6" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+    </row>
+    <row r="8" spans="2:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="11"/>
+      <c r="C8" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="27"/>
+      <c r="H8" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="8">
+        <v>2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="J11" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="8">
+        <v>3</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.40277777777777779</v>
+      </c>
+      <c r="J12" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>4</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="8">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>5</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="8">
+        <v>5</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="J14" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>6</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="44"/>
+      <c r="E15" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="8">
+        <v>6</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>7</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="44"/>
+      <c r="E16" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="8">
+        <v>7</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="J16" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>8</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="44"/>
+      <c r="E17" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="8">
+        <v>8</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.47222222222222221</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>9</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="44"/>
+      <c r="E18" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="8">
+        <v>9</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J18" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>10</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="44"/>
+      <c r="E19" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="8">
+        <v>10</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>11</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="44"/>
+      <c r="E20" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="8">
+        <v>11</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.51388888888888884</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>12</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="44"/>
+      <c r="E21" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="8">
+        <v>12</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>13</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="E22" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="8">
+        <v>13</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>14</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D24" s="45"/>
+      <c r="E24" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="8">
+        <v>14</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>15</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="45"/>
+      <c r="E25" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="8">
+        <v>15</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.59722222222222221</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>16</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="45"/>
+      <c r="E26" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="8">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>17</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D27" s="45"/>
+      <c r="E27" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="8">
+        <v>17</v>
+      </c>
+      <c r="I27" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>18</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" s="45"/>
+      <c r="E28" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="8">
+        <v>18</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="J28" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>19</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="45"/>
+      <c r="E29" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="8">
+        <v>19</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.65277777777777779</v>
+      </c>
+      <c r="J29" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>20</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="45"/>
+      <c r="E30" s="41" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="8">
+        <v>20</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J30" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>21</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" s="45"/>
+      <c r="E31" s="41" t="s">
+        <v>157</v>
+      </c>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="8">
+        <v>21</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0.68055555555555558</v>
+      </c>
+      <c r="J31" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B2:M3"/>
+    <mergeCell ref="B5:M6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4492D9E-5D8F-4A37-BC20-4B9E1C686037}">
+  <dimension ref="B2:I91"/>
+  <sheetViews>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="50" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="54"/>
+      <c r="C2" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="54" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>4</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>6</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>7</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>8</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>9</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="7">
+        <v>10</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="7">
+        <v>11</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="7">
+        <v>12</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="7">
+        <v>13</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>14</v>
+      </c>
+      <c r="C16" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>15</v>
+      </c>
+      <c r="C17" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>16</v>
+      </c>
+      <c r="C18" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>17</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>18</v>
+      </c>
+      <c r="C20" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>19</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>20</v>
+      </c>
+      <c r="C22" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>21</v>
+      </c>
+      <c r="C23" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>22</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>23</v>
+      </c>
+      <c r="C25" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>24</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>25</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="7"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
+        <v>26</v>
+      </c>
+      <c r="C28" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="7"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
+        <v>27</v>
+      </c>
+      <c r="C29" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>28</v>
+      </c>
+      <c r="C30" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>29</v>
+      </c>
+      <c r="C31" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="7"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>30</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>31</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>32</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <v>33</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <v>34</v>
+      </c>
+      <c r="C36" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="7"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <v>35</v>
+      </c>
+      <c r="C37" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <v>36</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <v>37</v>
+      </c>
+      <c r="C39" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <v>38</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="7"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <v>39</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <v>40</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <v>41</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>42</v>
+      </c>
+      <c r="C44" s="52" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>43</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <v>44</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <v>45</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="7">
+        <v>46</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="7">
+        <v>47</v>
+      </c>
+      <c r="C49" s="52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="7">
+        <v>48</v>
+      </c>
+      <c r="C50" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="7">
+        <v>49</v>
+      </c>
+      <c r="C51" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="7">
+        <v>50</v>
+      </c>
+      <c r="C52" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="7">
+        <v>51</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="7">
+        <v>52</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="7">
+        <v>53</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="7">
+        <v>54</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="7">
+        <v>55</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="7">
+        <v>56</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>184</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="7"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="7">
+        <v>57</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="7">
+        <v>58</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="7">
+        <v>59</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="7">
+        <v>60</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B63" s="7">
+        <v>61</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B64" s="7">
+        <v>62</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B65" s="7">
+        <v>63</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B66" s="7">
+        <v>64</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B67" s="7">
+        <v>65</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B68" s="7">
+        <v>66</v>
+      </c>
+      <c r="C68" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B69" s="7">
+        <v>67</v>
+      </c>
+      <c r="C69" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B70" s="7">
+        <v>68</v>
+      </c>
+      <c r="C70" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D70" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E70" s="6"/>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B71" s="7">
+        <v>69</v>
+      </c>
+      <c r="C71" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D71" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E71" s="6"/>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B72" s="7">
+        <v>70</v>
+      </c>
+      <c r="C72" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="E72" s="6"/>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B73" s="7">
+        <v>71</v>
+      </c>
+      <c r="C73" s="52" t="s">
+        <v>138</v>
+      </c>
+      <c r="D73" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="E73" s="6"/>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B74" s="7">
+        <v>72</v>
+      </c>
+      <c r="C74" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="61" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" s="6"/>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="7">
+        <v>73</v>
+      </c>
+      <c r="C75" s="52" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="E75" s="6"/>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B76" s="7">
+        <v>74</v>
+      </c>
+      <c r="C76" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="D76" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B77" s="7">
+        <v>75</v>
+      </c>
+      <c r="C77" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D77" s="61" t="s">
+        <v>147</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="7"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B78" s="7">
+        <v>76</v>
+      </c>
+      <c r="C78" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="61" t="s">
+        <v>149</v>
+      </c>
+      <c r="E78" s="6"/>
+      <c r="F78" s="7"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B79" s="7">
+        <v>77</v>
+      </c>
+      <c r="C79" s="52" t="s">
+        <v>150</v>
+      </c>
+      <c r="D79" s="61" t="s">
+        <v>151</v>
+      </c>
+      <c r="E79" s="6"/>
+      <c r="F79" s="7"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B80" s="7">
+        <v>78</v>
+      </c>
+      <c r="C80" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="D80" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="E80" s="6"/>
+      <c r="F80" s="7"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B81" s="7">
+        <v>79</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>154</v>
+      </c>
+      <c r="D81" s="61" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="6"/>
+      <c r="F81" s="7"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B82" s="7">
+        <v>80</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D82" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="E82" s="6"/>
+      <c r="F82" s="7"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="51"/>
+    </row>
+    <row r="84" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
+    </row>
+    <row r="85" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="58"/>
+      <c r="D85" s="59"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="60"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B87" s="7">
+        <v>1</v>
+      </c>
+      <c r="C87" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F87" s="53" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B88" s="7">
+        <v>2</v>
+      </c>
+      <c r="C88" s="52"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="7"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B89" s="7">
+        <v>3</v>
+      </c>
+      <c r="C89" s="52"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="7"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="7">
+        <v>4</v>
+      </c>
+      <c r="C90" s="52"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="7"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B91" s="7">
+        <v>5</v>
+      </c>
+      <c r="C91" s="52"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C84:F85"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>